--- a/mvo/mvo.xlsx
+++ b/mvo/mvo.xlsx
@@ -41,16 +41,16 @@
     <t>script_name_0</t>
   </si>
   <si>
-    <t>mvo_with_data.py</t>
-  </si>
-  <si>
     <t>script_path_0</t>
   </si>
   <si>
-    <t>C:\Users\Ben\Desktop\finance_demo\mvo_with_data.py</t>
-  </si>
-  <si>
     <t>Ticker</t>
+  </si>
+  <si>
+    <t>mvo.py</t>
+  </si>
+  <si>
+    <t>C:\Users\Ben\Desktop\blog\mvo\mvo.py</t>
   </si>
 </sst>
 </file>
@@ -414,15 +414,15 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,13 +446,12 @@
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -495,6 +494,9 @@
       <c r="B5" s="1">
         <v>0.1242</v>
       </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mvo/mvo.xlsx
+++ b/mvo/mvo.xlsx
@@ -406,7 +406,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +435,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
